--- a/Lectures/Lecture 7/MultiSchedule-1.xlsx
+++ b/Lectures/Lecture 7/MultiSchedule-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianaoc/Documents/Courses/STOR 305/Fall 2019/Excel spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8E0953-AAC9-0B45-BBBA-A13A0CE08DBA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE3C2DB-98F7-4FEF-BC20-C7FCC176AFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="900" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{377C3877-F8B6-EA43-8374-DB82C630EF11}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="1" xr2:uid="{377C3877-F8B6-EA43-8374-DB82C630EF11}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="A">Standard!$B$13:$R$24</definedName>
     <definedName name="B">Standard!$B$7:$R$12</definedName>
     <definedName name="obj">Standard!$B$5:$R$5</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Alternative!$B$5:$B$10,Alternative!$D$5:$D$10</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Standard!$B$28:$B$44</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -28,9 +27,11 @@
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Alternative!$B$5:$B$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Alternative!$G$10</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Standard!$S$13:$S$24</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">Standard!$S$20</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">Standard!$S$21</definedName>
@@ -41,10 +42,11 @@
     <definedName name="solver_lhs16" localSheetId="0" hidden="1">Standard!$S$8</definedName>
     <definedName name="solver_lhs17" localSheetId="0" hidden="1">Standard!$S$9</definedName>
     <definedName name="solver_lhs18" localSheetId="0" hidden="1">Standard!$U$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Alternative!$D$5:$D$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Alternative!$G$5:$G$9</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Standard!$S$7:$S$12</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Alternative!$G$5:$G$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Alternative!$G$5:$G$9</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Standard!$S$12</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Alternative!$G$5:$G$9</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Standard!$S$13</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Standard!$S$14</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Standard!$S$15</definedName>
@@ -65,15 +67,16 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Alternative!$B$12</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Standard!$B$45</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">1</definedName>
@@ -84,17 +87,18 @@
     <definedName name="solver_rel16" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel17" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel18" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Alternative!$C$5:$C$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Alternative!$H$10</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Standard!$U$13:$U$24</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">Standard!$U$20</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">Standard!$U$21</definedName>
@@ -105,10 +109,11 @@
     <definedName name="solver_rhs16" localSheetId="0" hidden="1">Standard!$U$8</definedName>
     <definedName name="solver_rhs17" localSheetId="0" hidden="1">Standard!$U$9</definedName>
     <definedName name="solver_rhs18" localSheetId="0" hidden="1">Standard!$U$19</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Alternative!$E$5:$E$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Alternative!$H$5:$H$9</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Standard!$U$7:$U$12</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Alternative!$H$5:$H$10</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Alternative!$H$5:$H$9</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Standard!$U$12</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Alternative!$H$5:$H$9</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Standard!$U$13</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">Standard!$U$14</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">Standard!$U$15</definedName>
@@ -133,14 +138,22 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="x">Standard!$B$28:$B$44</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -845,9 +858,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17417C0B-777A-3B49-9023-5DF6246A0D68}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" workbookViewId="0"/>
+    <sheetView topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
@@ -859,12 +874,12 @@
     <col min="19" max="19" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -921,7 +936,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>0</v>
@@ -976,7 +991,7 @@
       </c>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>24</v>
       </c>
@@ -1033,7 +1048,7 @@
       </c>
       <c r="S5" s="8"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
@@ -1121,7 +1136,7 @@
       </c>
       <c r="S7" s="19">
         <f t="array" ref="S7:S12">MMULT(B,x)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="T7" s="15" t="s">
         <v>25</v>
@@ -1130,7 +1145,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>27</v>
       </c>
@@ -1186,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="19">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="T8" s="15" t="s">
         <v>25</v>
@@ -1195,7 +1210,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -1251,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="19">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="T9" s="15" t="s">
         <v>25</v>
@@ -1260,7 +1275,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="19">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="T10" s="15" t="s">
         <v>25</v>
@@ -1325,7 +1340,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
@@ -1381,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="19">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T11" s="15" t="s">
         <v>25</v>
@@ -1390,7 +1405,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
@@ -1446,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="20">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="T12" s="18" t="s">
         <v>25</v>
@@ -1455,7 +1470,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
         <v>32</v>
       </c>
@@ -1512,7 +1527,7 @@
       </c>
       <c r="S13" s="19">
         <f t="array" ref="S13:S24">MMULT(A,x)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T13" s="19" t="s">
         <v>4</v>
@@ -1521,7 +1536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>32</v>
       </c>
@@ -1577,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="19">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T14" s="19" t="s">
         <v>4</v>
@@ -1586,7 +1601,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>32</v>
       </c>
@@ -1642,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="19">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T15" s="19" t="s">
         <v>4</v>
@@ -1651,7 +1666,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>32</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="19">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T16" s="19" t="s">
         <v>4</v>
@@ -1716,7 +1731,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
@@ -1772,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="19">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T17" s="19" t="s">
         <v>4</v>
@@ -1781,7 +1796,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
@@ -1837,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="20">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T18" s="20" t="s">
         <v>4</v>
@@ -1846,7 +1861,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>33</v>
       </c>
@@ -1911,7 +1926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>33</v>
       </c>
@@ -1976,7 +1991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>33</v>
       </c>
@@ -2032,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T21" s="19" t="s">
         <v>4</v>
@@ -2041,7 +2056,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>33</v>
       </c>
@@ -2097,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T22" s="19" t="s">
         <v>4</v>
@@ -2106,7 +2121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>33</v>
       </c>
@@ -2162,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="T23" s="19" t="s">
         <v>4</v>
@@ -2171,7 +2186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>33</v>
       </c>
@@ -2227,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="S24" s="20">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T24" s="20" t="s">
         <v>4</v>
@@ -2236,7 +2251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2259,20 +2274,20 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2280,23 +2295,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -2304,31 +2319,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2336,23 +2351,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2360,53 +2375,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="23">
         <f>MMULT(obj,x)</f>
-        <v>0</v>
+        <v>216300</v>
       </c>
     </row>
   </sheetData>
@@ -2418,21 +2433,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D851BA74-D16C-AA4A-BDAA-9AB328C3908A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>38</v>
@@ -2457,7 +2472,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>37</v>
       </c>
@@ -2486,12 +2501,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="26">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C5" s="2">
         <v>160</v>
@@ -2504,26 +2519,26 @@
       </c>
       <c r="F5" s="14">
         <f>B5+D5</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G5" s="24">
         <f>B5+D5</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H5" s="2">
         <v>105</v>
       </c>
       <c r="I5" s="31">
         <f>G5-H5</f>
-        <v>-105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="27">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C6" s="7">
         <v>160</v>
@@ -2536,155 +2551,155 @@
       </c>
       <c r="F6" s="15">
         <f t="shared" ref="F6:F10" si="0">B6+D6</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G6" s="25">
         <f>B6+D6+I5</f>
-        <v>-105</v>
+        <v>215</v>
       </c>
       <c r="H6" s="19">
         <v>170</v>
       </c>
       <c r="I6" s="31">
         <f t="shared" ref="I6:I9" si="1">G6-H6</f>
-        <v>-275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="27">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C7" s="7">
         <v>160</v>
       </c>
       <c r="D7" s="27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E7" s="6">
         <v>50</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="G7" s="25">
         <f t="shared" ref="G7:G10" si="2">B7+D7+I6</f>
-        <v>-275</v>
+        <v>230</v>
       </c>
       <c r="H7" s="19">
         <v>230</v>
       </c>
       <c r="I7" s="31">
         <f t="shared" si="1"/>
-        <v>-505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>4</v>
       </c>
       <c r="B8" s="27">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C8" s="8">
         <v>160</v>
       </c>
       <c r="D8" s="27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6">
         <v>50</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G8" s="25">
         <f t="shared" si="2"/>
-        <v>-505</v>
+        <v>180</v>
       </c>
       <c r="H8" s="19">
         <v>180</v>
       </c>
       <c r="I8" s="31">
         <f t="shared" si="1"/>
-        <v>-685</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>5</v>
       </c>
       <c r="B9" s="27">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C9" s="8">
         <v>160</v>
       </c>
       <c r="D9" s="27">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6">
         <v>50</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="G9" s="25">
         <f t="shared" si="2"/>
-        <v>-685</v>
+        <v>190</v>
       </c>
       <c r="H9" s="19">
         <v>150</v>
       </c>
       <c r="I9" s="31">
         <f t="shared" si="1"/>
-        <v>-835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="28">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C10" s="11">
         <v>160</v>
       </c>
       <c r="D10" s="28">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E10" s="10">
         <v>50</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="G10" s="18">
         <f t="shared" si="2"/>
-        <v>-835</v>
+        <v>250</v>
       </c>
       <c r="H10" s="11">
         <v>250</v>
       </c>
       <c r="I10" s="29"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="23">
         <f>B16*SUM(B5:B10)+C16*SUM(D5:D10)+D16*SUM(I5:I9)</f>
-        <v>-24050</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>216300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
         <v>50</v>
       </c>
@@ -2698,7 +2713,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>190</v>
       </c>

--- a/Lectures/Lecture 7/MultiSchedule-1.xlsx
+++ b/Lectures/Lecture 7/MultiSchedule-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE3C2DB-98F7-4FEF-BC20-C7FCC176AFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1C1E6B-11DC-4A33-9F1A-0831271EEC80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" activeTab="1" xr2:uid="{377C3877-F8B6-EA43-8374-DB82C630EF11}"/>
+    <workbookView xWindow="2790" yWindow="2950" windowWidth="20570" windowHeight="10160" xr2:uid="{377C3877-F8B6-EA43-8374-DB82C630EF11}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Alternative!$G$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Alternative!$B$5:$B$10</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Standard!$S$13:$S$24</definedName>
     <definedName name="solver_lhs10" localSheetId="0" hidden="1">Standard!$S$20</definedName>
     <definedName name="solver_lhs11" localSheetId="0" hidden="1">Standard!$S$21</definedName>
@@ -42,12 +42,13 @@
     <definedName name="solver_lhs16" localSheetId="0" hidden="1">Standard!$S$8</definedName>
     <definedName name="solver_lhs17" localSheetId="0" hidden="1">Standard!$S$9</definedName>
     <definedName name="solver_lhs18" localSheetId="0" hidden="1">Standard!$U$19</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Alternative!$G$5:$G$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Alternative!$D$5:$D$10</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Standard!$S$7:$S$12</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Alternative!$G$5:$G$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Alternative!$G$5:$G$10</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Standard!$S$12</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Alternative!$G$5:$G$9</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Alternative!$I$5:$I$9</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">Standard!$S$13</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Alternative!$I$5:$I$9</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">Standard!$S$14</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">Standard!$S$15</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">Standard!$S$16</definedName>
@@ -76,7 +77,7 @@
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="0" hidden="1">1</definedName>
@@ -87,18 +88,19 @@
     <definedName name="solver_rel16" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel17" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel18" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Alternative!$H$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Alternative!$C$5:$C$10</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Standard!$U$13:$U$24</definedName>
     <definedName name="solver_rhs10" localSheetId="0" hidden="1">Standard!$U$20</definedName>
     <definedName name="solver_rhs11" localSheetId="0" hidden="1">Standard!$U$21</definedName>
@@ -109,12 +111,13 @@
     <definedName name="solver_rhs16" localSheetId="0" hidden="1">Standard!$U$8</definedName>
     <definedName name="solver_rhs17" localSheetId="0" hidden="1">Standard!$U$9</definedName>
     <definedName name="solver_rhs18" localSheetId="0" hidden="1">Standard!$U$19</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Alternative!$H$5:$H$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Alternative!$E$5:$E$10</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Standard!$U$7:$U$12</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Alternative!$H$5:$H$9</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Alternative!$H$5:$H$10</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Standard!$U$12</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Alternative!$H$5:$H$9</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">Standard!$U$13</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">Standard!$U$14</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">Standard!$U$15</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">Standard!$U$16</definedName>
@@ -509,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -537,8 +540,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -858,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17417C0B-777A-3B49-9023-5DF6246A0D68}">
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2433,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D851BA74-D16C-AA4A-BDAA-9AB328C3908A}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2512,166 +2513,166 @@
         <v>160</v>
       </c>
       <c r="D5" s="26">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3">
         <v>50</v>
       </c>
       <c r="F5" s="14">
         <f>B5+D5</f>
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="G5" s="24">
         <f>B5+D5</f>
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="H5" s="2">
         <v>105</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="29">
         <f>G5-H5</f>
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>160</v>
       </c>
       <c r="C6" s="7">
         <v>160</v>
       </c>
-      <c r="D6" s="27">
-        <v>0</v>
+      <c r="D6" s="26">
+        <v>50</v>
       </c>
       <c r="E6" s="6">
         <v>50</v>
       </c>
       <c r="F6" s="15">
         <f t="shared" ref="F6:F10" si="0">B6+D6</f>
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="G6" s="25">
         <f>B6+D6+I5</f>
-        <v>215</v>
+        <v>315</v>
       </c>
       <c r="H6" s="19">
         <v>170</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="29">
         <f t="shared" ref="I6:I9" si="1">G6-H6</f>
-        <v>45</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>160</v>
       </c>
       <c r="C7" s="7">
         <v>160</v>
       </c>
-      <c r="D7" s="27">
-        <v>25</v>
+      <c r="D7" s="26">
+        <v>50</v>
       </c>
       <c r="E7" s="6">
         <v>50</v>
       </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G7" s="25">
         <f t="shared" ref="G7:G10" si="2">B7+D7+I6</f>
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="H7" s="19">
         <v>230</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>160</v>
       </c>
       <c r="C8" s="8">
         <v>160</v>
       </c>
-      <c r="D8" s="27">
-        <v>20</v>
+      <c r="D8" s="26">
+        <v>50</v>
       </c>
       <c r="E8" s="6">
         <v>50</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="G8" s="25">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="H8" s="19">
         <v>180</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>160</v>
       </c>
       <c r="C9" s="8">
         <v>160</v>
       </c>
-      <c r="D9" s="27">
-        <v>30</v>
+      <c r="D9" s="26">
+        <v>50</v>
       </c>
       <c r="E9" s="6">
         <v>50</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G9" s="25">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>365</v>
       </c>
       <c r="H9" s="19">
         <v>150</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="29">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="26">
         <v>160</v>
       </c>
       <c r="C10" s="11">
         <v>160</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>50</v>
       </c>
       <c r="E10" s="10">
@@ -2683,12 +2684,12 @@
       </c>
       <c r="G10" s="18">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="H10" s="11">
         <v>250</v>
       </c>
-      <c r="I10" s="29"/>
+      <c r="I10" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -2696,11 +2697,11 @@
       </c>
       <c r="B12" s="23">
         <f>B16*SUM(B5:B10)+C16*SUM(D5:D10)+D16*SUM(I5:I9)</f>
-        <v>216300</v>
+        <v>267850</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B15" t="s">
